--- a/main/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:40:13+00:00</t>
+    <t>2024-10-07T22:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T22:34:38+00:00</t>
+    <t>2024-10-11T20:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-history-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$13</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:53:55+00:00</t>
+    <t>2024-10-11T23:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -417,22 +417,6 @@
   </si>
   <si>
     <t>Identifiers for the source and user that modified the specific element that this extension is on.</t>
-  </si>
-  <si>
-    <t>Extension.extension:genderIdentity</t>
-  </si>
-  <si>
-    <t>genderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-genderIdentity}
-</t>
-  </si>
-  <si>
-    <t>The patient's gender identity</t>
-  </si>
-  <si>
-    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
   </si>
   <si>
     <t>base64Binary
@@ -764,7 +748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -775,7 +759,7 @@
   <cols>
     <col min="1" max="1" width="36.265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.37109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1962,26 +1946,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
@@ -1990,22 +1972,24 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>76</v>
@@ -2047,30 +2031,30 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2078,10 +2062,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2093,24 +2077,22 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -2152,10 +2134,10 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>83</v>
@@ -2164,117 +2146,14 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK14">
+  <autoFilter ref="A1:AK13">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2284,7 +2163,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI13">
+  <conditionalFormatting sqref="A2:AI12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:14:19+00:00</t>
+    <t>2024-10-11T23:23:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:23:09+00:00</t>
+    <t>2024-10-11T23:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-gender-history-extension.xlsx
+++ b/main/StructureDefinition-bc-gender-history-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T23:26:29+00:00</t>
+    <t>2025-08-27T22:33:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -757,42 +757,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.37109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.63671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
